--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/views/tabelas/tabela_resumo.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/views/tabelas/tabela_resumo.xlsx
@@ -475,22 +475,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0004900049639253723</v>
+        <v>6.537576981102688e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01061728878910735</v>
+        <v>0.07090239856820775</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05177053714756319</v>
+        <v>0.4080665883277739</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4292279437445356</v>
+        <v>16.14253289135289</v>
       </c>
       <c r="F2" t="n">
-        <v>2.27701673583778</v>
+        <v>19.62821485518731</v>
       </c>
       <c r="G2" t="n">
-        <v>18.85</v>
+        <v>82.23999999999999</v>
       </c>
     </row>
   </sheetData>
